--- a/NovaBase/Contagem_positivas_negativas.xlsx
+++ b/NovaBase/Contagem_positivas_negativas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tadio\OneDrive\Área de Trabalho\Facul\IC\Reconhecimento-de-daninhas\NovaBase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2F27208-8CBE-4D0D-90E1-5F18C4385DF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8948AA7C-CA6C-4F72-AF26-994745C09952}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{61F0F356-0060-4676-9A52-F0542FEE0B70}"/>
+    <workbookView xWindow="14265" yWindow="0" windowWidth="14640" windowHeight="15585" xr2:uid="{61F0F356-0060-4676-9A52-F0542FEE0B70}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="20">
   <si>
     <t>20210806_hegnstrup</t>
   </si>
@@ -63,14 +63,55 @@
   </si>
   <si>
     <t>P/N</t>
+  </si>
+  <si>
+    <t>2x2</t>
+  </si>
+  <si>
+    <t>1x1</t>
+  </si>
+  <si>
+    <t>Teste</t>
+  </si>
+  <si>
+    <t>Treino</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
@@ -98,11 +139,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -437,10 +479,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{194EB3C0-416F-46EF-A9D9-AB81619EDEA5}">
-  <dimension ref="B2:H14"/>
+  <dimension ref="B2:L31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -450,7 +492,7 @@
     <col min="4" max="4" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
@@ -463,8 +505,11 @@
       <c r="F2" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I2" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
@@ -482,12 +527,8 @@
         <f>C3/D3</f>
         <v>3.6031746031746033</v>
       </c>
-      <c r="H3">
-        <f>D3*2+C3</f>
-        <v>706</v>
-      </c>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
@@ -498,7 +539,7 @@
         <v>75</v>
       </c>
       <c r="E4" s="1">
-        <f t="shared" ref="E4:E7" si="0">(C4+D4)</f>
+        <f t="shared" ref="E4:E8" si="0">(C4+D4)</f>
         <v>1534</v>
       </c>
       <c r="F4" s="1">
@@ -506,7 +547,7 @@
         <v>19.453333333333333</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
@@ -524,12 +565,8 @@
         <f t="shared" si="1"/>
         <v>2.2982456140350878</v>
       </c>
-      <c r="H5">
-        <f t="shared" ref="H4:H5" si="2">D5*2+C5</f>
-        <v>1470</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
@@ -548,7 +585,7 @@
         <v>25.315789473684209</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>6</v>
       </c>
@@ -567,7 +604,7 @@
         <v>19.78688524590164</v>
       </c>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B8" s="1"/>
       <c r="C8" s="1">
         <f>(SUM(C3:C7))</f>
@@ -577,51 +614,225 @@
         <f>(SUM(D3:D7))</f>
         <v>642</v>
       </c>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="E8" s="1">
+        <f t="shared" si="0"/>
+        <v>5510</v>
+      </c>
+      <c r="F8" s="1">
+        <f>C8/D8</f>
+        <v>7.5825545171339561</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="G9" s="2"/>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
+      <c r="C12" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
+      <c r="C13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
+    <row r="20" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="E20" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D21" s="1">
+        <v>1</v>
+      </c>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D22" s="1">
+        <v>2</v>
+      </c>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D23" s="1">
+        <v>3</v>
+      </c>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D24" s="1">
+        <v>4</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D25" s="1">
+        <v>5</v>
+      </c>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I25" s="1"/>
+    </row>
+    <row r="26" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D26" s="1">
+        <v>6</v>
+      </c>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I26" s="1"/>
+      <c r="L26" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D27" s="1">
+        <v>7</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I27" s="1"/>
+    </row>
+    <row r="28" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D28" s="1">
+        <v>8</v>
+      </c>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+    </row>
+    <row r="29" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D29" s="1">
+        <v>9</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+    </row>
+    <row r="30" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D30" s="1">
+        <v>10</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
